--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100510.5958036953</v>
+        <v>18288765.57156871</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100510.5958036953</v>
+        <v>18288765.57156871</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>294221.030453708</v>
+        <v>35544951.97330036</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>294221.030453708</v>
+        <v>35544951.97330036</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1602724354.609893</v>
+        <v>17392717.14858865</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19533.85242548644</v>
+        <v>463000.9780650088</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38169.33781976708</v>
+        <v>807788.9404538459</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>57034.95522223602</v>
+        <v>1152576.902842682</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>76033.89218029364</v>
+        <v>1439307.37028846</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>94856.03801231616</v>
+        <v>1797804.576667503</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>113577.7120573577</v>
+        <v>2141925.851611511</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>132302.7233551332</v>
+        <v>2486047.12655552</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>151024.4578452701</v>
+        <v>2830168.401499529</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>170027.1896085857</v>
+        <v>3117127.447497836</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>188847.7813597924</v>
+        <v>3475624.653876947</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>207571.1542537479</v>
+        <v>3819745.92882107</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>226294.382379604</v>
+        <v>4163867.203765176</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>245017.9000416587</v>
+        <v>4507988.478709282</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>264020.4870368753</v>
+        <v>4794947.524707552</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>283978.5328893431</v>
+        <v>5023257.222140861</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>35.000000000005</v>
@@ -27052,13 +27052,13 @@
         <v>16.0000000000051</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>19.00000000000796</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,10 +27147,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
